--- a/InputData/elec/GHESS/Green Hydrogen Electricity Supply Shareweights.xlsx
+++ b/InputData/elec/GHESS/Green Hydrogen Electricity Supply Shareweights.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganMahajan\Documents\eps-us\InputData\elec\TTS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Modeling\EPS\EU\eps-eu\InputData\elec\GHESS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{460419F9-E16A-400F-91E6-BD5553EB796E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{625088B9-66B7-410C-A5F8-26D776B79511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31260" yWindow="660" windowWidth="21600" windowHeight="12525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>Max Fraction of Production (dimensionless)</t>
   </si>
@@ -109,9 +109,6 @@
     <t>hydrogen combined cycle</t>
   </si>
   <si>
-    <t>Source: None Needed</t>
-  </si>
-  <si>
     <t>Notes:</t>
   </si>
   <si>
@@ -134,6 +131,27 @@
   </si>
   <si>
     <t>GHESS Green Hydrogen Electricity Supply Shareweights</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clean Hydrogen Monitor 2022 report. </t>
+  </si>
+  <si>
+    <t>Source:</t>
+  </si>
+  <si>
+    <t>Electricity source for hydrogen projects</t>
+  </si>
+  <si>
+    <t>Hydrogen Europe</t>
+  </si>
+  <si>
+    <t>Clean Hydrogen Monitor 2022</t>
+  </si>
+  <si>
+    <t>https://hydrogeneurope.eu/wp-content/uploads/2022/10/Clean_Hydrogen_Monitor_10-2022_DIGITAL.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For the EU model, we calibrate these values to Hydrogen Europe's </t>
   </si>
 </sst>
 </file>
@@ -383,7 +401,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -563,6 +581,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="14">
     <border>
@@ -716,7 +740,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="85">
+  <cellStyleXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyProtection="0">
@@ -812,8 +836,9 @@
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -822,8 +847,13 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="85"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="85">
+  <cellStyles count="86">
     <cellStyle name="20% - Accent1" xfId="25" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="29" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="33" builtinId="38" customBuiltin="1"/>
@@ -865,6 +895,7 @@
     <cellStyle name="Heading 2" xfId="10" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="11" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="12" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8"/>
     <cellStyle name="Hyperlink 2" xfId="77" xr:uid="{E283E47E-2F86-4A89-8D02-E2992DD3D2DE}"/>
     <cellStyle name="Hyperlink 2 2" xfId="84" xr:uid="{2D4E116A-493D-4045-B7BA-CEF4D3AE7A96}"/>
     <cellStyle name="Hyperlink 3" xfId="74" xr:uid="{912A9BAB-AD28-435A-B4EA-160F8BFE9A24}"/>
@@ -1210,66 +1241,108 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A13"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="61.5703125" customWidth="1"/>
+    <col min="2" max="2" width="61.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="1"/>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="1"/>
+      <c r="B5" s="6">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="1"/>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="1"/>
+      <c r="B7" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="1"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>30</v>
-      </c>
-    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B7" r:id="rId1" xr:uid="{310E439B-DF60-481D-B7B4-96DFF6CEEFA8}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1281,15 +1354,15 @@
   <dimension ref="A1:AE25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="B7" sqref="B7:AE7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="1" max="1" width="24.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1384,7 +1457,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1479,7 +1552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1574,7 +1647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1669,7 +1742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1764,7 +1837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1859,197 +1932,197 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="M7">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="N7">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="O7">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="P7">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="Q7">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="R7">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="S7">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="T7">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="U7">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="V7">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="W7">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="X7">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="Y7">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="Z7">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="AA7">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="AB7">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="AC7">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="AD7">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="AE7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="M8">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="N8">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="O8">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="P8">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="Q8">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="R8">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="S8">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="T8">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="U8">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="V8">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="W8">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="X8">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="Y8">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="Z8">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AA8">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AB8">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AC8">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AD8">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AE8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -2144,7 +2217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -2239,7 +2312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -2334,7 +2407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -2429,7 +2502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -2524,7 +2597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -2619,102 +2692,102 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="J15">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="M15">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="N15">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="O15">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="P15">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="Q15">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="R15">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="S15">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="T15">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="U15">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="V15">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="W15">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="X15">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="Y15">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="Z15">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AA15">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AB15">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AC15">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AD15">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AE15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -2809,7 +2882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -2904,7 +2977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -2999,7 +3072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -3094,7 +3167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -3189,7 +3262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -3284,7 +3357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -3379,7 +3452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -3474,7 +3547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>23</v>
       </c>
@@ -3569,7 +3642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>24</v>
       </c>

--- a/InputData/elec/GHESS/Green Hydrogen Electricity Supply Shareweights.xlsx
+++ b/InputData/elec/GHESS/Green Hydrogen Electricity Supply Shareweights.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Modeling\EPS\EU\eps-eu\InputData\elec\GHESS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{625088B9-66B7-410C-A5F8-26D776B79511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55FDF5C7-AE7B-4F36-A776-6E509B9B5474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31260" yWindow="660" windowWidth="21600" windowHeight="12525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32835" yWindow="4005" windowWidth="21600" windowHeight="12525" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="GHESS" sheetId="18" r:id="rId2"/>
+    <sheet name="Calibration" sheetId="19" r:id="rId2"/>
+    <sheet name="GHESS" sheetId="18" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="77">
   <si>
     <t>Max Fraction of Production (dimensionless)</t>
   </si>
@@ -152,6 +153,117 @@
   </si>
   <si>
     <t xml:space="preserve">For the EU model, we calibrate these values to Hydrogen Europe's </t>
+  </si>
+  <si>
+    <t>Solar</t>
+  </si>
+  <si>
+    <t>Unspecified</t>
+  </si>
+  <si>
+    <t>Offshore</t>
+  </si>
+  <si>
+    <t>Solar &amp; Wind</t>
+  </si>
+  <si>
+    <t>Onshore</t>
+  </si>
+  <si>
+    <t>Contributions by category</t>
+  </si>
+  <si>
+    <t>capacity</t>
+  </si>
+  <si>
+    <t>Clean Hydrogen Monitor 2022 projections for 2030 (Fig 15, pg 69)</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Shares</t>
+  </si>
+  <si>
+    <t>^calibrate Off Grid Capacity for Green Hydrogen Demand to these shares</t>
+  </si>
+  <si>
+    <t>Time (Year)</t>
+  </si>
+  <si>
+    <t>EPS shares:</t>
+  </si>
+  <si>
+    <t>New Off Grid Capacity for Green Hydrogen Demand[hard coal es] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>New Off Grid Capacity for Green Hydrogen Demand[natural gas steam turbine es] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>New Off Grid Capacity for Green Hydrogen Demand[natural gas combined cycle es] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>New Off Grid Capacity for Green Hydrogen Demand[nuclear es] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>New Off Grid Capacity for Green Hydrogen Demand[hydro es] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>New Off Grid Capacity for Green Hydrogen Demand[onshore wind es] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>New Off Grid Capacity for Green Hydrogen Demand[solar PV es] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>New Off Grid Capacity for Green Hydrogen Demand[solar thermal es] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>New Off Grid Capacity for Green Hydrogen Demand[biomass es] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>New Off Grid Capacity for Green Hydrogen Demand[geothermal es] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>New Off Grid Capacity for Green Hydrogen Demand[petroleum es] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>New Off Grid Capacity for Green Hydrogen Demand[natural gas peaker es] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>New Off Grid Capacity for Green Hydrogen Demand[lignite es] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>New Off Grid Capacity for Green Hydrogen Demand[offshore wind es] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>New Off Grid Capacity for Green Hydrogen Demand[crude oil es] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>New Off Grid Capacity for Green Hydrogen Demand[heavy or residual fuel oil es] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>New Off Grid Capacity for Green Hydrogen Demand[municipal solid waste es] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>New Off Grid Capacity for Green Hydrogen Demand[hard coal w CCS es] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>New Off Grid Capacity for Green Hydrogen Demand[natural gas combined cycle w CCS es] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>New Off Grid Capacity for Green Hydrogen Demand[biomass w CCS es] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>New Off Grid Capacity for Green Hydrogen Demand[lignite w CCS es] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>New Off Grid Capacity for Green Hydrogen Demand[small modular reactor es] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>New Off Grid Capacity for Green Hydrogen Demand[hydrogen combustion turbine es] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>New Off Grid Capacity for Green Hydrogen Demand[hydrogen combined cycle es] : MostRecentRun</t>
   </si>
 </sst>
 </file>
@@ -401,7 +513,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -587,6 +699,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="14">
     <border>
@@ -740,7 +858,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="86">
+  <cellStyleXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyProtection="0">
@@ -837,8 +955,9 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -852,8 +971,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="86" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="86">
+  <cellStyles count="87">
     <cellStyle name="20% - Accent1" xfId="25" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="29" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="33" builtinId="38" customBuiltin="1"/>
@@ -931,6 +1052,7 @@
     <cellStyle name="Note 2" xfId="55" xr:uid="{636BD9CE-D635-43C3-997F-ED224B968A09}"/>
     <cellStyle name="Output" xfId="17" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Parent row" xfId="3" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Percent" xfId="86" builtinId="5"/>
     <cellStyle name="Percent 2" xfId="51" xr:uid="{F28A5997-39DB-4992-8FE0-811DC2849511}"/>
     <cellStyle name="Percent 2 2" xfId="82" xr:uid="{4BA75E2B-0C17-4696-A461-35EC8C0A18A1}"/>
     <cellStyle name="Percent 2 3" xfId="64" xr:uid="{F2F0F2BA-C854-4ED5-AF93-47A67A75F51F}"/>
@@ -1243,12 +1365,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="9.1796875" customWidth="1"/>
     <col min="2" max="2" width="61.54296875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1347,14 +1470,2705 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D976F26C-EB7C-4A98-A884-6736FAE3B9F7}">
+  <dimension ref="A1:AD51"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1" s="8">
+        <v>2025</v>
+      </c>
+      <c r="K1" s="8">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="K4" t="s">
+        <v>40</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="K5" t="s">
+        <v>42</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6">
+        <v>0.5</v>
+      </c>
+      <c r="C6">
+        <v>0.5</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="K6" t="s">
+        <v>43</v>
+      </c>
+      <c r="L6">
+        <v>0.5</v>
+      </c>
+      <c r="M6">
+        <v>0.5</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="K7" t="s">
+        <v>44</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>41</v>
+      </c>
+      <c r="K8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>47</v>
+      </c>
+      <c r="K10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>46</v>
+      </c>
+      <c r="L11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12">
+        <v>18139</v>
+      </c>
+      <c r="K12" t="s">
+        <v>40</v>
+      </c>
+      <c r="L12">
+        <v>74950</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13">
+        <v>1566</v>
+      </c>
+      <c r="K13" t="s">
+        <v>42</v>
+      </c>
+      <c r="L13">
+        <v>18061</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14">
+        <v>1311</v>
+      </c>
+      <c r="K14" t="s">
+        <v>43</v>
+      </c>
+      <c r="L14">
+        <v>5445</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15">
+        <v>853</v>
+      </c>
+      <c r="K15" t="s">
+        <v>44</v>
+      </c>
+      <c r="L15">
+        <v>2043</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16">
+        <v>31786</v>
+      </c>
+      <c r="K16" t="s">
+        <v>41</v>
+      </c>
+      <c r="L16">
+        <v>31786</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17">
+        <v>6270</v>
+      </c>
+      <c r="K17" t="s">
+        <v>48</v>
+      </c>
+      <c r="L17">
+        <v>6270</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>49</v>
+      </c>
+      <c r="K19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" t="s">
+        <v>14</v>
+      </c>
+      <c r="L20" t="s">
+        <v>7</v>
+      </c>
+      <c r="M20" t="s">
+        <v>6</v>
+      </c>
+      <c r="N20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="B21">
+        <f>SUMPRODUCT(B4:B7,$B12:$B15)</f>
+        <v>18794.5</v>
+      </c>
+      <c r="C21">
+        <f>SUMPRODUCT(C4:C7,$B12:$B15)</f>
+        <v>1508.5</v>
+      </c>
+      <c r="D21">
+        <f>SUMPRODUCT(D4:D7,$B12:$B15)</f>
+        <v>1566</v>
+      </c>
+      <c r="L21">
+        <f>SUMPRODUCT(L4:L7,$L12:$L15)</f>
+        <v>77672.5</v>
+      </c>
+      <c r="M21">
+        <f t="shared" ref="M21:N21" si="0">SUMPRODUCT(M4:M7,$L12:$L15)</f>
+        <v>4765.5</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="0"/>
+        <v>18061</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="B22" s="7">
+        <f>B21/SUM($B21:$D21)</f>
+        <v>0.85941286752937951</v>
+      </c>
+      <c r="C22" s="7">
+        <f t="shared" ref="C22:D22" si="1">C21/SUM($B21:$D21)</f>
+        <v>6.8978919932324301E-2</v>
+      </c>
+      <c r="D22" s="7">
+        <f t="shared" si="1"/>
+        <v>7.1608212538296218E-2</v>
+      </c>
+      <c r="L22" s="7">
+        <f>L21/SUM($L21:$N21)</f>
+        <v>0.77286838675011693</v>
+      </c>
+      <c r="M22" s="7">
+        <f t="shared" ref="M22:N22" si="2">M21/SUM($L21:$N21)</f>
+        <v>4.7418382272460424E-2</v>
+      </c>
+      <c r="N22" s="7">
+        <f t="shared" si="2"/>
+        <v>0.17971323097742267</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="B23" t="s">
+        <v>50</v>
+      </c>
+      <c r="L23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" s="7">
+        <f>SUM(D34:E34)/SUM(D28:E51)</f>
+        <v>0.85902967332922431</v>
+      </c>
+      <c r="C24" s="7">
+        <f>SUM(D33:E33)/SUM(D28:E51)</f>
+        <v>5.732147574183323E-2</v>
+      </c>
+      <c r="D24" s="7">
+        <f>SUM(D41:E41)/SUM(D28:E51)</f>
+        <v>8.3648850928942503E-2</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L24" s="7">
+        <f>SUM(D34:J34)/SUM(D28:J51)</f>
+        <v>0.77340895457272185</v>
+      </c>
+      <c r="M24" s="7">
+        <f>SUM(D33:J33)/SUM(D28:J51)</f>
+        <v>5.2353165730490266E-2</v>
+      </c>
+      <c r="N24" s="7">
+        <f>SUM(D41:J41)/SUM(D28:J51)</f>
+        <v>0.17423787969678792</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27">
+        <v>2022</v>
+      </c>
+      <c r="C27">
+        <v>2023</v>
+      </c>
+      <c r="D27">
+        <v>2024</v>
+      </c>
+      <c r="E27">
+        <v>2025</v>
+      </c>
+      <c r="F27">
+        <v>2026</v>
+      </c>
+      <c r="G27">
+        <v>2027</v>
+      </c>
+      <c r="H27">
+        <v>2028</v>
+      </c>
+      <c r="I27">
+        <v>2029</v>
+      </c>
+      <c r="J27">
+        <v>2030</v>
+      </c>
+      <c r="K27">
+        <v>2031</v>
+      </c>
+      <c r="L27">
+        <v>2032</v>
+      </c>
+      <c r="M27">
+        <v>2033</v>
+      </c>
+      <c r="N27">
+        <v>2034</v>
+      </c>
+      <c r="O27">
+        <v>2035</v>
+      </c>
+      <c r="P27">
+        <v>2036</v>
+      </c>
+      <c r="Q27">
+        <v>2037</v>
+      </c>
+      <c r="R27">
+        <v>2038</v>
+      </c>
+      <c r="S27">
+        <v>2039</v>
+      </c>
+      <c r="T27">
+        <v>2040</v>
+      </c>
+      <c r="U27">
+        <v>2041</v>
+      </c>
+      <c r="V27">
+        <v>2042</v>
+      </c>
+      <c r="W27">
+        <v>2043</v>
+      </c>
+      <c r="X27">
+        <v>2044</v>
+      </c>
+      <c r="Y27">
+        <v>2045</v>
+      </c>
+      <c r="Z27">
+        <v>2046</v>
+      </c>
+      <c r="AA27">
+        <v>2047</v>
+      </c>
+      <c r="AB27">
+        <v>2048</v>
+      </c>
+      <c r="AC27">
+        <v>2049</v>
+      </c>
+      <c r="AD27">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <v>0</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
+      </c>
+      <c r="Y28">
+        <v>0</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+      <c r="AA28">
+        <v>0</v>
+      </c>
+      <c r="AB28">
+        <v>0</v>
+      </c>
+      <c r="AC28">
+        <v>0</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Y29">
+        <v>0</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+      <c r="AA29">
+        <v>0</v>
+      </c>
+      <c r="AB29">
+        <v>0</v>
+      </c>
+      <c r="AC29">
+        <v>0</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
+      </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <v>0</v>
+      </c>
+      <c r="Y30">
+        <v>0</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+      <c r="AA30">
+        <v>0</v>
+      </c>
+      <c r="AB30">
+        <v>0</v>
+      </c>
+      <c r="AC30">
+        <v>0</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <v>0</v>
+      </c>
+      <c r="Y31">
+        <v>0</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+      <c r="AA31">
+        <v>0</v>
+      </c>
+      <c r="AB31">
+        <v>0</v>
+      </c>
+      <c r="AC31">
+        <v>0</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
+      </c>
+      <c r="Y32">
+        <v>0</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+      <c r="AA32">
+        <v>0</v>
+      </c>
+      <c r="AB32">
+        <v>0</v>
+      </c>
+      <c r="AC32">
+        <v>0</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>648</v>
+      </c>
+      <c r="E33">
+        <v>654</v>
+      </c>
+      <c r="F33">
+        <v>408</v>
+      </c>
+      <c r="G33">
+        <v>336</v>
+      </c>
+      <c r="H33">
+        <v>300</v>
+      </c>
+      <c r="I33">
+        <v>282</v>
+      </c>
+      <c r="J33">
+        <v>252</v>
+      </c>
+      <c r="K33">
+        <v>156</v>
+      </c>
+      <c r="L33">
+        <v>138</v>
+      </c>
+      <c r="M33">
+        <v>138</v>
+      </c>
+      <c r="N33">
+        <v>132</v>
+      </c>
+      <c r="O33">
+        <v>120</v>
+      </c>
+      <c r="P33">
+        <v>18</v>
+      </c>
+      <c r="Q33">
+        <v>12</v>
+      </c>
+      <c r="R33">
+        <v>30</v>
+      </c>
+      <c r="S33">
+        <v>30</v>
+      </c>
+      <c r="T33">
+        <v>48</v>
+      </c>
+      <c r="U33">
+        <v>48</v>
+      </c>
+      <c r="V33">
+        <v>54</v>
+      </c>
+      <c r="W33">
+        <v>48</v>
+      </c>
+      <c r="X33">
+        <v>48</v>
+      </c>
+      <c r="Y33">
+        <v>42</v>
+      </c>
+      <c r="Z33">
+        <v>60</v>
+      </c>
+      <c r="AA33">
+        <v>60</v>
+      </c>
+      <c r="AB33">
+        <v>66</v>
+      </c>
+      <c r="AC33">
+        <v>60</v>
+      </c>
+      <c r="AD33">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>59</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>9940</v>
+      </c>
+      <c r="E34">
+        <v>9572</v>
+      </c>
+      <c r="F34">
+        <v>5948</v>
+      </c>
+      <c r="G34">
+        <v>4824</v>
+      </c>
+      <c r="H34">
+        <v>4184</v>
+      </c>
+      <c r="I34">
+        <v>4166</v>
+      </c>
+      <c r="J34">
+        <v>3912</v>
+      </c>
+      <c r="K34">
+        <v>2418</v>
+      </c>
+      <c r="L34">
+        <v>2124</v>
+      </c>
+      <c r="M34">
+        <v>2168</v>
+      </c>
+      <c r="N34">
+        <v>2076</v>
+      </c>
+      <c r="O34">
+        <v>1926</v>
+      </c>
+      <c r="P34">
+        <v>332</v>
+      </c>
+      <c r="Q34">
+        <v>274</v>
+      </c>
+      <c r="R34">
+        <v>570</v>
+      </c>
+      <c r="S34">
+        <v>528</v>
+      </c>
+      <c r="T34">
+        <v>838</v>
+      </c>
+      <c r="U34">
+        <v>936</v>
+      </c>
+      <c r="V34">
+        <v>996</v>
+      </c>
+      <c r="W34">
+        <v>896</v>
+      </c>
+      <c r="X34">
+        <v>894</v>
+      </c>
+      <c r="Y34">
+        <v>804</v>
+      </c>
+      <c r="Z34">
+        <v>1116</v>
+      </c>
+      <c r="AA34">
+        <v>1092</v>
+      </c>
+      <c r="AB34">
+        <v>1292</v>
+      </c>
+      <c r="AC34">
+        <v>1158</v>
+      </c>
+      <c r="AD34">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="35" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>60</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <v>0</v>
+      </c>
+      <c r="V35">
+        <v>0</v>
+      </c>
+      <c r="W35">
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <v>0</v>
+      </c>
+      <c r="Y35">
+        <v>0</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+      <c r="AA35">
+        <v>0</v>
+      </c>
+      <c r="AB35">
+        <v>0</v>
+      </c>
+      <c r="AC35">
+        <v>0</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>61</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="T36">
+        <v>0</v>
+      </c>
+      <c r="U36">
+        <v>0</v>
+      </c>
+      <c r="V36">
+        <v>0</v>
+      </c>
+      <c r="W36">
+        <v>0</v>
+      </c>
+      <c r="X36">
+        <v>0</v>
+      </c>
+      <c r="Y36">
+        <v>0</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+      <c r="AA36">
+        <v>0</v>
+      </c>
+      <c r="AB36">
+        <v>0</v>
+      </c>
+      <c r="AC36">
+        <v>0</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>62</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <v>0</v>
+      </c>
+      <c r="S37">
+        <v>0</v>
+      </c>
+      <c r="T37">
+        <v>0</v>
+      </c>
+      <c r="U37">
+        <v>0</v>
+      </c>
+      <c r="V37">
+        <v>0</v>
+      </c>
+      <c r="W37">
+        <v>0</v>
+      </c>
+      <c r="X37">
+        <v>0</v>
+      </c>
+      <c r="Y37">
+        <v>0</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+      <c r="AA37">
+        <v>0</v>
+      </c>
+      <c r="AB37">
+        <v>0</v>
+      </c>
+      <c r="AC37">
+        <v>0</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>63</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <v>0</v>
+      </c>
+      <c r="S38">
+        <v>0</v>
+      </c>
+      <c r="T38">
+        <v>0</v>
+      </c>
+      <c r="U38">
+        <v>0</v>
+      </c>
+      <c r="V38">
+        <v>0</v>
+      </c>
+      <c r="W38">
+        <v>0</v>
+      </c>
+      <c r="X38">
+        <v>0</v>
+      </c>
+      <c r="Y38">
+        <v>0</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+      <c r="AA38">
+        <v>0</v>
+      </c>
+      <c r="AB38">
+        <v>0</v>
+      </c>
+      <c r="AC38">
+        <v>0</v>
+      </c>
+      <c r="AD38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>64</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <v>0</v>
+      </c>
+      <c r="T39">
+        <v>0</v>
+      </c>
+      <c r="U39">
+        <v>0</v>
+      </c>
+      <c r="V39">
+        <v>0</v>
+      </c>
+      <c r="W39">
+        <v>0</v>
+      </c>
+      <c r="X39">
+        <v>0</v>
+      </c>
+      <c r="Y39">
+        <v>0</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+      <c r="AA39">
+        <v>0</v>
+      </c>
+      <c r="AB39">
+        <v>0</v>
+      </c>
+      <c r="AC39">
+        <v>0</v>
+      </c>
+      <c r="AD39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>65</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+      <c r="R40">
+        <v>0</v>
+      </c>
+      <c r="S40">
+        <v>0</v>
+      </c>
+      <c r="T40">
+        <v>0</v>
+      </c>
+      <c r="U40">
+        <v>0</v>
+      </c>
+      <c r="V40">
+        <v>0</v>
+      </c>
+      <c r="W40">
+        <v>0</v>
+      </c>
+      <c r="X40">
+        <v>0</v>
+      </c>
+      <c r="Y40">
+        <v>0</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+      <c r="AA40">
+        <v>0</v>
+      </c>
+      <c r="AB40">
+        <v>0</v>
+      </c>
+      <c r="AC40">
+        <v>0</v>
+      </c>
+      <c r="AD40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>66</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>925</v>
+      </c>
+      <c r="E41">
+        <v>975</v>
+      </c>
+      <c r="F41">
+        <v>1125</v>
+      </c>
+      <c r="G41">
+        <v>1435</v>
+      </c>
+      <c r="H41">
+        <v>1645</v>
+      </c>
+      <c r="I41">
+        <v>1740</v>
+      </c>
+      <c r="J41">
+        <v>1740</v>
+      </c>
+      <c r="K41">
+        <v>1115</v>
+      </c>
+      <c r="L41">
+        <v>1005</v>
+      </c>
+      <c r="M41">
+        <v>1040</v>
+      </c>
+      <c r="N41">
+        <v>1000</v>
+      </c>
+      <c r="O41">
+        <v>930</v>
+      </c>
+      <c r="P41">
+        <v>160</v>
+      </c>
+      <c r="Q41">
+        <v>130</v>
+      </c>
+      <c r="R41">
+        <v>270</v>
+      </c>
+      <c r="S41">
+        <v>250</v>
+      </c>
+      <c r="T41">
+        <v>400</v>
+      </c>
+      <c r="U41">
+        <v>450</v>
+      </c>
+      <c r="V41">
+        <v>485</v>
+      </c>
+      <c r="W41">
+        <v>440</v>
+      </c>
+      <c r="X41">
+        <v>445</v>
+      </c>
+      <c r="Y41">
+        <v>405</v>
+      </c>
+      <c r="Z41">
+        <v>570</v>
+      </c>
+      <c r="AA41">
+        <v>570</v>
+      </c>
+      <c r="AB41">
+        <v>685</v>
+      </c>
+      <c r="AC41">
+        <v>625</v>
+      </c>
+      <c r="AD41">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="42" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>67</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+      <c r="R42">
+        <v>0</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>0</v>
+      </c>
+      <c r="U42">
+        <v>0</v>
+      </c>
+      <c r="V42">
+        <v>0</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>0</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+      <c r="AA42">
+        <v>0</v>
+      </c>
+      <c r="AB42">
+        <v>0</v>
+      </c>
+      <c r="AC42">
+        <v>0</v>
+      </c>
+      <c r="AD42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>68</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>0</v>
+      </c>
+      <c r="R43">
+        <v>0</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>0</v>
+      </c>
+      <c r="U43">
+        <v>0</v>
+      </c>
+      <c r="V43">
+        <v>0</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>0</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+      <c r="AA43">
+        <v>0</v>
+      </c>
+      <c r="AB43">
+        <v>0</v>
+      </c>
+      <c r="AC43">
+        <v>0</v>
+      </c>
+      <c r="AD43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>69</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>0</v>
+      </c>
+      <c r="R44">
+        <v>0</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>0</v>
+      </c>
+      <c r="U44">
+        <v>0</v>
+      </c>
+      <c r="V44">
+        <v>0</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>0</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+      <c r="AA44">
+        <v>0</v>
+      </c>
+      <c r="AB44">
+        <v>0</v>
+      </c>
+      <c r="AC44">
+        <v>0</v>
+      </c>
+      <c r="AD44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>70</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>0</v>
+      </c>
+      <c r="R45">
+        <v>0</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>0</v>
+      </c>
+      <c r="U45">
+        <v>0</v>
+      </c>
+      <c r="V45">
+        <v>0</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>0</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <v>0</v>
+      </c>
+      <c r="AB45">
+        <v>0</v>
+      </c>
+      <c r="AC45">
+        <v>0</v>
+      </c>
+      <c r="AD45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>71</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
+      <c r="R46">
+        <v>0</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>0</v>
+      </c>
+      <c r="U46">
+        <v>0</v>
+      </c>
+      <c r="V46">
+        <v>0</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>0</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+      <c r="AA46">
+        <v>0</v>
+      </c>
+      <c r="AB46">
+        <v>0</v>
+      </c>
+      <c r="AC46">
+        <v>0</v>
+      </c>
+      <c r="AD46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>72</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>0</v>
+      </c>
+      <c r="R47">
+        <v>0</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>0</v>
+      </c>
+      <c r="U47">
+        <v>0</v>
+      </c>
+      <c r="V47">
+        <v>0</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>0</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+      <c r="AA47">
+        <v>0</v>
+      </c>
+      <c r="AB47">
+        <v>0</v>
+      </c>
+      <c r="AC47">
+        <v>0</v>
+      </c>
+      <c r="AD47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>73</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>0</v>
+      </c>
+      <c r="R48">
+        <v>0</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>0</v>
+      </c>
+      <c r="U48">
+        <v>0</v>
+      </c>
+      <c r="V48">
+        <v>0</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>0</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+      <c r="AA48">
+        <v>0</v>
+      </c>
+      <c r="AB48">
+        <v>0</v>
+      </c>
+      <c r="AC48">
+        <v>0</v>
+      </c>
+      <c r="AD48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>74</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>0</v>
+      </c>
+      <c r="R49">
+        <v>0</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>0</v>
+      </c>
+      <c r="U49">
+        <v>0</v>
+      </c>
+      <c r="V49">
+        <v>0</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>0</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+      <c r="AA49">
+        <v>0</v>
+      </c>
+      <c r="AB49">
+        <v>0</v>
+      </c>
+      <c r="AC49">
+        <v>0</v>
+      </c>
+      <c r="AD49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>75</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>0</v>
+      </c>
+      <c r="R50">
+        <v>0</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>0</v>
+      </c>
+      <c r="U50">
+        <v>0</v>
+      </c>
+      <c r="V50">
+        <v>0</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>0</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+      <c r="AA50">
+        <v>0</v>
+      </c>
+      <c r="AB50">
+        <v>0</v>
+      </c>
+      <c r="AC50">
+        <v>0</v>
+      </c>
+      <c r="AD50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>76</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>0</v>
+      </c>
+      <c r="R51">
+        <v>0</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>0</v>
+      </c>
+      <c r="U51">
+        <v>0</v>
+      </c>
+      <c r="V51">
+        <v>0</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>0</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+      <c r="AA51">
+        <v>0</v>
+      </c>
+      <c r="AB51">
+        <v>0</v>
+      </c>
+      <c r="AC51">
+        <v>0</v>
+      </c>
+      <c r="AD51">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:AE25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:AE7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:AE25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1937,31 +4751,31 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="C7">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="D7">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="E7">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="F7">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="G7">
-        <v>0.1</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="H7">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
       <c r="I7">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="J7">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="K7">
         <v>0.1</v>
@@ -2035,91 +4849,91 @@
         <v>1.5</v>
       </c>
       <c r="C8">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="D8">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="E8">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
       <c r="F8">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="G8">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="H8">
-        <v>1.5</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I8">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="J8">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="K8">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="N8">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="O8">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="P8">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="Q8">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="R8">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="S8">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="T8">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="U8">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="V8">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="W8">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="X8">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="Y8">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="Z8">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AA8">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AB8">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AC8">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AD8">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AE8">
-        <v>1.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.35">
@@ -2697,94 +5511,94 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="C15">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="D15">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="E15">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="F15">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="G15">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="H15">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="I15">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="J15">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="K15">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="M15">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="N15">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="O15">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="P15">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="Q15">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="R15">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="S15">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="T15">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="U15">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="V15">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="W15">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="X15">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="Y15">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="Z15">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AA15">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AB15">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AC15">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AD15">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AE15">
-        <v>1.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.35">
